--- a/OnlineShopCore/wwwroot/templates/ProductImportTemplate.xlsx
+++ b/OnlineShopCore/wwwroot/templates/ProductImportTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoct\Documents\Visual Studio 2017\Projects\TeduCore\TeduCore.WebApp\wwwroot\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REL\Desktop\OnlineShopCore\OnlineShopCore\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE24EF7-FFA6-460E-A8D8-319930FBEC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="3288" yWindow="2064" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Description</t>
   </si>
@@ -38,18 +39,9 @@
     <t>Promotion Price</t>
   </si>
   <si>
-    <t>Original Price</t>
-  </si>
-  <si>
     <t>Content</t>
   </si>
   <si>
-    <t>Seo Keywords</t>
-  </si>
-  <si>
-    <t>Seo Description</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -57,12 +49,15 @@
   </si>
   <si>
     <t>Home Flag</t>
+  </si>
+  <si>
+    <t>Seo Alias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,20 +107,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K23" totalsRowShown="0">
-  <autoFilter ref="A1:K23"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Description"/>
-    <tableColumn id="4" name="Original Price"/>
-    <tableColumn id="5" name="Price"/>
-    <tableColumn id="6" name="Promotion Price"/>
-    <tableColumn id="8" name="Content"/>
-    <tableColumn id="9" name="Seo Keywords"/>
-    <tableColumn id="10" name="Seo Description"/>
-    <tableColumn id="11" name="Status"/>
-    <tableColumn id="12" name="Home Flag"/>
-    <tableColumn id="13" name="Hot Flag"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I23" totalsRowShown="0">
+  <autoFilter ref="A1:I23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Price"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Promotion Price"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Content"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Seo Alias"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Status"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Home Flag"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Hot Flag"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -393,29 +386,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -423,31 +415,25 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/OnlineShopCore/wwwroot/templates/ProductImportTemplate.xlsx
+++ b/OnlineShopCore/wwwroot/templates/ProductImportTemplate.xlsx
@@ -1,50 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REL\Desktop\OnlineShopCore\OnlineShopCore\wwwroot\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\rel\desktop\onlineshopcore\onlineshopcore\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE24EF7-FFA6-460E-A8D8-319930FBEC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B039DCD-789D-45F4-A3CE-47010164B147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3288" yWindow="2064" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Price</t>
   </si>
   <si>
-    <t>Promotion Price</t>
-  </si>
-  <si>
     <t>Content</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Hot Flag</t>
   </si>
   <si>
@@ -52,6 +74,15 @@
   </si>
   <si>
     <t>Seo Alias</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>TotalPage</t>
   </si>
 </sst>
 </file>
@@ -93,7 +124,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -111,12 +146,14 @@
   <autoFilter ref="A1:I23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description"/>
+    <tableColumn id="10" xr3:uid="{8CD20A91-06AB-4BC7-8528-F83C838E0398}" name="Width"/>
+    <tableColumn id="7" xr3:uid="{1A886CBD-2E53-42A3-8B4C-C4742FBA1E8B}" name="Height"/>
+    <tableColumn id="4" xr3:uid="{BB753133-0605-41DF-BF95-2E20485A6E5F}" name="TotalPage"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Price"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Promotion Price"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Content"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Seo Alias"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Status"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Seo Alias" dataDxfId="0">
+      <calculatedColumnFormula array="1">_xll.FriendlyUrl(A2)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Home Flag"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Hot Flag"/>
   </tableColumns>
@@ -387,21 +424,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -409,31 +444,163 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G2" t="str" cm="1">
+        <f t="array" ref="G2">_xll.FriendlyUrl(A2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3" t="str" cm="1">
+        <f t="array" ref="G3">_xll.FriendlyUrl(A3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G4" t="str" cm="1">
+        <f t="array" ref="G4">_xll.FriendlyUrl(A4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G5" t="str" cm="1">
+        <f t="array" ref="G5">_xll.FriendlyUrl(A5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" t="str" cm="1">
+        <f t="array" ref="G6">_xll.FriendlyUrl(A6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" t="str" cm="1">
+        <f t="array" ref="G7">_xll.FriendlyUrl(A7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8" t="str" cm="1">
+        <f t="array" ref="G8">_xll.FriendlyUrl(A8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G9" t="str" cm="1">
+        <f t="array" ref="G9">_xll.FriendlyUrl(A9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G10" t="str" cm="1">
+        <f t="array" ref="G10">_xll.FriendlyUrl(A10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G11" t="str" cm="1">
+        <f t="array" ref="G11">_xll.FriendlyUrl(A11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G12" t="str" cm="1">
+        <f t="array" ref="G12">_xll.FriendlyUrl(A12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G13" t="str" cm="1">
+        <f t="array" ref="G13">_xll.FriendlyUrl(A13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G14" t="str" cm="1">
+        <f t="array" ref="G14">_xll.FriendlyUrl(A14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G15" t="str" cm="1">
+        <f t="array" ref="G15">_xll.FriendlyUrl(A15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G16" t="str" cm="1">
+        <f t="array" ref="G16">_xll.FriendlyUrl(A16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G17" t="str" cm="1">
+        <f t="array" ref="G17">_xll.FriendlyUrl(A17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" t="str" cm="1">
+        <f t="array" ref="G18">_xll.FriendlyUrl(A18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G19" t="str" cm="1">
+        <f t="array" ref="G19">_xll.FriendlyUrl(A19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G20" t="str" cm="1">
+        <f t="array" ref="G20">_xll.FriendlyUrl(A20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G21" t="str" cm="1">
+        <f t="array" ref="G21">_xll.FriendlyUrl(A21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G22" t="str" cm="1">
+        <f t="array" ref="G22">_xll.FriendlyUrl(A22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G23" t="str" cm="1">
+        <f t="array" ref="G23">_xll.FriendlyUrl(A23)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
